--- a/dashboard/dashboardapp/saved/extracted_tables.xlsx
+++ b/dashboard/dashboardapp/saved/extracted_tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="127">
   <si>
     <t>0</t>
   </si>
@@ -49,10 +49,10 @@
     <t>State Project</t>
   </si>
   <si>
-    <t>6012-51</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>0503-78</t>
+  </si>
+  <si>
+    <t>5 10</t>
   </si>
   <si>
     <t>15</t>
@@ -79,37 +79,13 @@
     <t>50</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>95</t>
+    <t>55 60</t>
   </si>
   <si>
     <t>Bridge No. or Job Desc.</t>
   </si>
   <si>
-    <t>SLIDE</t>
+    <t>73014</t>
   </si>
   <si>
     <t>Depth</t>
@@ -118,154 +94,169 @@
     <t>Elev.</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>842.3</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>839.0</t>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>983.2</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>970.5 19.0</t>
+  </si>
+  <si>
+    <t>967.8 22.0</t>
+  </si>
+  <si>
+    <t>964.8</t>
   </si>
   <si>
     <t>24.0</t>
   </si>
   <si>
-    <t>823.8</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>798.8</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>793.8</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>785.8</t>
-  </si>
-  <si>
-    <t>66.5</t>
-  </si>
-  <si>
-    <t>781.3</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>776.8</t>
-  </si>
-  <si>
-    <t>76.5</t>
-  </si>
-  <si>
-    <t>771.3</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>755.8</t>
-  </si>
-  <si>
-    <t>98.0</t>
+    <t>962.8</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>958.8</t>
+  </si>
+  <si>
+    <t>33.5</t>
+  </si>
+  <si>
+    <t>953.3</t>
+  </si>
+  <si>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>952.3 39.5</t>
+  </si>
+  <si>
+    <t>947.3</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>944.8</t>
+  </si>
+  <si>
+    <t>44.0 942.8</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>938.8</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>926.8</t>
   </si>
   <si>
     <t>Trunk Highway/Location</t>
   </si>
   <si>
-    <t>US Highway TH75</t>
+    <t>TH 23 Desoto Bridge</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>+ +</t>
+  </si>
+  <si>
+    <t>+ + + + +</t>
   </si>
   <si>
     <t>Boring No.</t>
   </si>
   <si>
-    <t>T01 Si</t>
+    <t>B06</t>
   </si>
   <si>
     <t>Classification</t>
   </si>
   <si>
-    <t>Top Soil / Fill Clay Loam slightly organic with a few roots and traces of Sand at 4.5'; dark-browns and moist</t>
-  </si>
-  <si>
-    <t>Top Soil / Fill</t>
-  </si>
-  <si>
-    <t>slightly organic Clay; black and moist</t>
-  </si>
-  <si>
-    <t>Fat Clay with some small pebbles and Slickenside at 9.0',</t>
-  </si>
-  <si>
-    <t>18.4' with IOS, thinly varved traces and seams of</t>
-  </si>
-  <si>
-    <t>light-brown Silt from 9.5'-11.5', very wet Silty Clay Loam</t>
-  </si>
-  <si>
-    <t>layer at 13.5' along with a few roots at 11.5'; gray-brown to</t>
-  </si>
-  <si>
-    <t>dark-gray, moist</t>
-  </si>
-  <si>
-    <t>Fat Clay with a few stones and pebbles, blocky 33.0'-38.0</t>
-  </si>
-  <si>
-    <t>with slickenside at 43.0', 45.0', 48.7'and 49.3' dark-gray and</t>
-  </si>
-  <si>
-    <t>moist</t>
-  </si>
-  <si>
-    <t>Fat Clay, dark-gray and moist</t>
-  </si>
-  <si>
-    <t>Silty Clay with a 1"seam of Silt at 58.6' and many small</t>
-  </si>
-  <si>
-    <t>pockets of Silt at 59.0'; gray and moist</t>
-  </si>
-  <si>
-    <t>Silt with thin traces of slightly plastic Silt Loam; gray and</t>
-  </si>
-  <si>
-    <t>very moist</t>
-  </si>
-  <si>
-    <t>slightly plastic Silt Loam with vertical thin Seams and traces</t>
-  </si>
-  <si>
-    <t>of gray Silt; dark-gray, wet</t>
-  </si>
-  <si>
-    <t>Silt with thin traces of slightly plastic Silt Loam; light-gray,</t>
-  </si>
-  <si>
-    <t>wet</t>
-  </si>
-  <si>
-    <t>Very Fine Sand, grays and saturated</t>
-  </si>
-  <si>
-    <t>Silt with thin traces of slightly plastic Silt Loam; Light-gray,</t>
+    <t>Barge</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>GRAVEL WITH SAND, brown, saturated, very loose, A-1-a, alluvium</t>
+  </si>
+  <si>
+    <t>GRAVELLY SAND, coarse grained, brown, saturated medium dense, A-1-b, alluvium</t>
+  </si>
+  <si>
+    <t>SAND, a little gravel, fine grained, grayish brown, a little black,</t>
+  </si>
+  <si>
+    <t>saturated, dense, laminations of loamy sand, A-3, alluvium</t>
+  </si>
+  <si>
+    <t>GRAVELLY SAND, coarse to fine grained, brown, saturated,</t>
+  </si>
+  <si>
+    <t>very dense, A-1-b, alluvium</t>
+  </si>
+  <si>
+    <t>SAND, a little gravel, fine to coarse grained, light brown, saturated, medium dense to dense, A-3, alluvium</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>LOAMY SAND, fine grained, grayish brown, saturated, very</t>
+  </si>
+  <si>
+    <t>dense, A-2-4, alluvium</t>
+  </si>
+  <si>
+    <t>SILT LOAM, grayish brown, saturated, medium dense to dense, lenses of fine to coarse grained sand and coarse grained sand</t>
+  </si>
+  <si>
+    <t>with gravel, A-4, alluvium</t>
+  </si>
+  <si>
+    <t>SAND, fine to coarse grained, light brown, saturated, dense,</t>
+  </si>
+  <si>
+    <t>A-3, alluvium</t>
+  </si>
+  <si>
+    <t>GRAVEL WITH SAND, possible boulders, grayish brown, saturated, very dense, A-1-a, alluvium</t>
+  </si>
+  <si>
+    <t>No sample recovery</t>
+  </si>
+  <si>
+    <t>Top of Bedrock</t>
+  </si>
+  <si>
+    <t>GRANITE</t>
+  </si>
+  <si>
+    <t>Weathering: Fresh Discontinuties: Shallow angle fracture at 57.2' Color: Gray, black and pink specked</t>
+  </si>
+  <si>
+    <t>Grain Size: Coarse to fine Hardness: Very hard</t>
+  </si>
+  <si>
+    <t>Bottom of Hole 60'</t>
   </si>
   <si>
     <t>Ground Elevation</t>
   </si>
   <si>
-    <t>847.8 (Surveyed)</t>
+    <t>986.8 (DTM)</t>
   </si>
   <si>
     <t>PD</t>
@@ -277,64 +268,64 @@
     <t>N60</t>
   </si>
   <si>
-    <t>REC (%)</t>
+    <t>REC</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>50/0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>(%)</t>
+  </si>
+  <si>
+    <t>ROD</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>46</t>
+    <t>29</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>(%)</t>
-  </si>
-  <si>
-    <t>RQD (%)</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>53 50</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>COH</t>
@@ -343,22 +334,7 @@
     <t>(psf)</t>
   </si>
   <si>
-    <t>ACL (ft)</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>950</t>
+    <t>ACL (ff)</t>
   </si>
   <si>
     <t>y</t>
@@ -370,21 +346,6 @@
     <t>Core Breaks</t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>Other Tests</t>
   </si>
   <si>
@@ -394,58 +355,46 @@
     <t>Formation or Member</t>
   </si>
   <si>
-    <t>UC 8.8'-9.3'</t>
-  </si>
-  <si>
-    <t>% C 62.7; % Si 35.8</t>
-  </si>
-  <si>
-    <t>UC, DS 13.4'-14.9"</t>
-  </si>
-  <si>
-    <t>Drill mud came up through</t>
-  </si>
-  <si>
-    <t>crack under drill rig</t>
-  </si>
-  <si>
-    <t>advanced augers to 18.0'</t>
-  </si>
-  <si>
-    <t>UC, DS 18.2'-19.2" Triax 24.0'</t>
-  </si>
-  <si>
-    <t>% C 60.3; % Si 34.5</t>
-  </si>
-  <si>
-    <t>Triax 29.0"</t>
-  </si>
-  <si>
-    <t>Triax 34.0'</t>
-  </si>
-  <si>
-    <t>Triax 39.0'</t>
-  </si>
-  <si>
-    <t>UC, DS 44.0'-45.0"</t>
-  </si>
-  <si>
-    <t>%C-70.6;Si-26.7</t>
-  </si>
-  <si>
-    <t>%C-57.8;Si-35.6 UC, DS 49.0'-50.0"</t>
-  </si>
-  <si>
-    <t>%Si-52.2;C-39.6</t>
-  </si>
-  <si>
-    <t>Triax,DS 58.3'-59.3" % C</t>
-  </si>
-  <si>
-    <t>33.7; % Si 63.3</t>
-  </si>
-  <si>
-    <t>High Silt content</t>
+    <t>SPT hammer calibrated to 64.5% efficiency on 9/13/07</t>
+  </si>
+  <si>
+    <t>(110 lb. hammer) 4.25" HSA used as casing to 39', drilling mud used in casing</t>
+  </si>
+  <si>
+    <t>-#200=1%</t>
+  </si>
+  <si>
+    <t>-#200=6%</t>
+  </si>
+  <si>
+    <t>Partial N-value from 23.5' to</t>
+  </si>
+  <si>
+    <t>23.8' was 65/0.3. Apparent</t>
+  </si>
+  <si>
+    <t>boulder.</t>
+  </si>
+  <si>
+    <t>-#200=7%</t>
+  </si>
+  <si>
+    <t>Apparent boulders at 44.5'-45'</t>
+  </si>
+  <si>
+    <t>No from 44'</t>
+  </si>
+  <si>
+    <t>sample recovery to 49.2'</t>
+  </si>
+  <si>
+    <t>REFORMATORY GRANITE</t>
+  </si>
+  <si>
+    <t>Note: Apparent fracture 5" from bottom likely caused the</t>
+  </si>
+  <si>
+    <t>92% recovery (lower 5" likely</t>
   </si>
 </sst>
 </file>
@@ -803,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,16 +795,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -863,609 +812,453 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="F4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
         <v>107</v>
       </c>
-      <c r="I4" t="s">
-        <v>115</v>
-      </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
         <v>108</v>
       </c>
-      <c r="I5" t="s">
-        <v>116</v>
-      </c>
       <c r="J5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
         <v>109</v>
       </c>
-      <c r="I6" t="s">
-        <v>117</v>
-      </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>96</v>
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" t="s">
-        <v>97</v>
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
       </c>
       <c r="G11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
         <v>100</v>
       </c>
-      <c r="H11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" t="s">
-        <v>120</v>
-      </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" t="s">
-        <v>89</v>
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
       <c r="G17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
         <v>89</v>
       </c>
-      <c r="J17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="E22" t="s">
-        <v>84</v>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
-      </c>
-      <c r="J22" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J23" t="s">
-        <v>137</v>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" t="s">
-        <v>122</v>
-      </c>
-      <c r="J24" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
       </c>
       <c r="J25" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="J26" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="J28" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J29" t="s">
-        <v>142</v>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
+        <v>94</v>
+      </c>
+      <c r="J30" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" t="s">
         <v>78</v>
       </c>
-      <c r="E34" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="D38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="F40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" t="s">
-        <v>84</v>
+      <c r="J31" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
